--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1647041.120722115</v>
+        <v>1639977.687380876</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12395515.18280278</v>
+        <v>12443395.52155652</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1508940.932681104</v>
+        <v>461523.3857480699</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10008877.60507573</v>
+        <v>10392241.98512478</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>312.5999042024239</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470353</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185514</v>
+        <v>19.23105653261689</v>
       </c>
       <c r="I3" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>177.3915605112321</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>88.70232846643735</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.5922962374714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>292.0476860419625</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>292.0476860419625</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>12.73612216399896</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>150.5333222722316</v>
       </c>
       <c r="T5" t="n">
-        <v>164.5942387798266</v>
+        <v>211.8604908645331</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>174.1533526069592</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.89523538818764</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494254</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>123.3996877745495</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.4592362197627</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>85.4556421029896</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>130.6528593994778</v>
       </c>
       <c r="F8" t="n">
-        <v>118.3616257394546</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.42366099135501</v>
+        <v>198.1999593894561</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>5.79037953886921</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411791</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.93898446134924</v>
+        <v>86.27179222793451</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>359.5517498754667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>105.0023863360933</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>105.0076120744433</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>131.6267707433217</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
-        <v>30.59144041089181</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.872264837327197</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>202.6706066824564</v>
+        <v>148.9055307001842</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.8470081063177</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>88.12442255545115</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
-        <v>13.56801115521992</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>125.3116103321635</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>190.1020452593627</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.777138064074</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>144.5885597026572</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8979900283342</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>143.6185946450596</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>92.50857761769487</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>85.69295083780972</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.6367768339986</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>34.32106446352842</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>177.7385038140898</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.8470081063177</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>88.12442255545115</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
-        <v>13.56801115521992</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>125.3116103321635</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>190.1020452593627</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.777138064074</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>104.7404240884129</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.18498022447888</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.5415021656201</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>219.0028168359312</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2048663021205</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>263.8647369406206</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>102.3739644559489</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>63.38272884730813</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G40" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>105.8965430419528</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>19.51567534720864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763404</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>11.76284745948055</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1958.285829056568</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C2" t="n">
-        <v>1642.528350064221</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>1642.528350064221</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>1256.740097465976</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>845.7541926763687</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>429.7231473797759</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809306</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>152.50781843019</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232717</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711866</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135166</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545596</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172447</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904653</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904653</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2168.459826904653</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1958.285829056568</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1958.285829056568</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="V2" t="n">
-        <v>1958.285829056568</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.285829056568</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.285829056568</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.285829056568</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.8450813388788</v>
+        <v>660.544000427793</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8450813388788</v>
+        <v>486.090971146666</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9106716776275</v>
+        <v>337.1565614854147</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6732166721721</v>
+        <v>177.9191064799592</v>
       </c>
       <c r="F3" t="n">
-        <v>302.138658699057</v>
+        <v>177.9191064799592</v>
       </c>
       <c r="G3" t="n">
-        <v>165.2626649141729</v>
+        <v>40.52242002902645</v>
       </c>
       <c r="H3" t="n">
-        <v>69.80729798300612</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809306</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562316</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504519</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>504.1959674104395</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>824.1028628789488</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N3" t="n">
-        <v>1166.88538687358</v>
+        <v>713.6562631339676</v>
       </c>
       <c r="O3" t="n">
-        <v>1458.244633128146</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1988.031189642585</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>2154.745546059887</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2168.459826904653</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>2029.495166406371</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.495166406371</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1801.393576539635</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1566.241468307892</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1312.004111579691</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>1132.820717123901</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>925.0604183589469</v>
+        <v>828.7593374478611</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>985.7705910201385</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C4" t="n">
-        <v>985.7705910201385</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>985.7705910201385</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>985.7705910201385</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>985.7705910201385</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>985.7705910201385</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>835.7303775239311</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>725.4736447490992</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>740.8007574127485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>895.8247485356766</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>1149.728518883894</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>1427.823567875085</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>1704.740754596115</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>1944.502301363958</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>2126.139042482092</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>2168.459826904653</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>2168.459826904653</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1969.280341288879</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1969.280341288879</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>1680.154020262903</v>
+        <v>739.7881721817791</v>
       </c>
       <c r="V4" t="n">
-        <v>1425.469532057016</v>
+        <v>485.1036839758923</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.469532057016</v>
+        <v>485.1036839758923</v>
       </c>
       <c r="X4" t="n">
-        <v>1197.479981158998</v>
+        <v>257.114133077875</v>
       </c>
       <c r="Y4" t="n">
-        <v>985.7705910201385</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.273607737845</v>
+        <v>626.2239100832803</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974335</v>
+        <v>626.2239100832803</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>626.2239100832803</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>331.2262474146312</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>36.22858474598222</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>23.363814883357</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>23.363814883357</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>23.363814883357</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>59.78825636383971</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>165.1175703266659</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>332.6896600105429</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>550.8153349129664</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>777.0843196575164</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>977.4084444713405</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>1113.879449478557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>1168.19074416785</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>1168.19074416785</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>1016.136883286808</v>
       </c>
       <c r="T5" t="n">
-        <v>2271.383314078316</v>
+        <v>802.1363874640472</v>
       </c>
       <c r="U5" t="n">
-        <v>2017.802253342496</v>
+        <v>802.1363874640472</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.739365998925</v>
+        <v>626.2239100832803</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.739365998925</v>
+        <v>626.2239100832803</v>
       </c>
       <c r="X5" t="n">
-        <v>1313.273607737845</v>
+        <v>626.2239100832803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1313.273607737845</v>
+        <v>626.2239100832803</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>652.5232668043058</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>478.0702375231788</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>329.1358278619275</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>169.898372856472</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>23.363814883357</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>23.363814883357</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>23.363814883357</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>23.363814883357</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>26.24011573973477</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>238.6143536102086</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694948</v>
+        <v>396.6359458787706</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>600.3965588314603</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>823.9587538161284</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1006.254690608419</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>1133.230185134634</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>1168.19074416785</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>1153.145051856549</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>1153.145051856549</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1153.145051856549</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1153.145051856549</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1153.145051856549</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1153.145051856549</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1028.498902589328</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>820.7386038243737</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>919.6966947956497</v>
+        <v>177.3630433881679</v>
       </c>
       <c r="C7" t="n">
-        <v>750.7605118677428</v>
+        <v>23.363814883357</v>
       </c>
       <c r="D7" t="n">
-        <v>600.6438724554071</v>
+        <v>23.363814883357</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>23.363814883357</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>23.363814883357</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>23.363814883357</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>23.363814883357</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>23.363814883357</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>23.363814883357</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>133.7390019589946</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>330.5076751718924</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>548.3617751656311</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>766.4704080112274</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>951.9127368348397</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1087.070003066811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1097.210808296916</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1097.210808296916</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1097.210808296916</v>
       </c>
       <c r="T7" t="n">
-        <v>1550.127289667437</v>
+        <v>1097.210808296916</v>
       </c>
       <c r="U7" t="n">
-        <v>1550.127289667437</v>
+        <v>1097.210808296916</v>
       </c>
       <c r="V7" t="n">
-        <v>1550.127289667437</v>
+        <v>1097.210808296916</v>
       </c>
       <c r="W7" t="n">
-        <v>1550.127289667437</v>
+        <v>807.7936382599551</v>
       </c>
       <c r="X7" t="n">
-        <v>1322.137738769419</v>
+        <v>579.8040873619377</v>
       </c>
       <c r="Y7" t="n">
-        <v>1101.345159625889</v>
+        <v>359.0115082184076</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>909.6965460670931</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="C8" t="n">
-        <v>540.7340291266814</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="D8" t="n">
-        <v>182.4683305199309</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="E8" t="n">
-        <v>182.4683305199309</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y8" t="n">
-        <v>1296.296386131215</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897737</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4962,52 +4962,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1436.244140893229</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>1181.559652687342</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>892.1424826503811</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1632.511388127729</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.548871187317</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>905.2831725805665</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>519.4949199823222</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993393</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>2788.565186649822</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>2782.716318428742</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>2409.250560167662</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2019.11122819185</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.7622949738575</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>583.8261120459506</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>527.322087337517</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882605</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845645</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.203338947627</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.4107598040972</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.52858457759</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
-        <v>810.5660676371781</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>452.3003690304276</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218342</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S14" t="n">
-        <v>3219.542805108066</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.565057492288</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>3013.565057492288</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>2682.502170148718</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>2329.733514878603</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>1956.267756617523</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>1566.128424641711</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>583.5439560698319</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1175.56231032196</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1797.658273721296</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2344.53474872149</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.7622949738584</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C16" t="n">
-        <v>583.8261120459515</v>
+        <v>392.982152135665</v>
       </c>
       <c r="D16" t="n">
-        <v>583.8261120459515</v>
+        <v>392.982152135665</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>392.982152135665</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>392.982152135665</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>225.7679573102439</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1672.610059882606</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1383.192889845646</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>1155.203338947628</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.4107598040981</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1628.363810771658</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1259.401293831246</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>901.1355952244955</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>515.3473426262514</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>104.3614378366438</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>104.3614378366438</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>104.3614378366438</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46099297715709</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J17" t="n">
-        <v>286.2829520527398</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>655.9864185513929</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1151.538022017666</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>1734.604100889755</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2331.718606873646</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>2882.221641452872</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>3317.562244269448</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>3596.312160183771</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>3673.049648857855</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>3667.11806821409</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>3462.400283686356</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>3462.400283686356</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3131.337396342785</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>2778.568741072671</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>2405.102982811591</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2014.963650835779</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5491740061753</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0961447250484</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1617350637971</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9242800583417</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3897220852266</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>176.180622987936</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>87.16605475010651</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46099297715709</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J18" t="n">
-        <v>181.3984468692021</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K18" t="n">
-        <v>444.0355723203428</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L18" t="n">
-        <v>600.020668759712</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M18" t="n">
-        <v>1085.540847696826</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N18" t="n">
-        <v>1598.319945975772</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O18" t="n">
-        <v>2045.192846173932</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2384.514679350483</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.845758111661</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.823490172911</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.765774956674</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.613666724932</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.37630999673</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.524809791197</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.764511026243</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798.5998378336509</v>
+        <v>850.9945487488452</v>
       </c>
       <c r="C19" t="n">
-        <v>629.663654905744</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D19" t="n">
-        <v>479.5470154934083</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E19" t="n">
-        <v>479.5470154934083</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>479.5470154934083</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>311.9732881920606</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H19" t="n">
-        <v>166.9040006717984</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46099297715709</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
-        <v>127.5300068450579</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>346.2188426883582</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>681.5916952397815</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1045.58446860604</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1406.356923807354</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>1723.572383385241</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>1971.484327489277</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2059.690627148093</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.690627148093</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2059.690627148093</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>2059.690627148093</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.132090948286</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="V19" t="n">
-        <v>1718.447602742399</v>
+        <v>1770.842313657593</v>
       </c>
       <c r="W19" t="n">
-        <v>1429.030432705438</v>
+        <v>1481.425143620632</v>
       </c>
       <c r="X19" t="n">
-        <v>1201.040881807421</v>
+        <v>1253.435592722615</v>
       </c>
       <c r="Y19" t="n">
-        <v>980.2483026638906</v>
+        <v>1032.643013579085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2012.247988976816</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1643.285472036404</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.019773429654</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>899.2315208314096</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>488.2456160418021</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>73.46099297715709</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>73.46099297715709</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>73.46099297715709</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>286.2829520527398</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>655.9864185513929</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L20" t="n">
-        <v>1151.538022017666</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>1734.604100889755</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2331.718606873646</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>2882.221641452872</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>3317.562244269448</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>3596.312160183771</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.049648857855</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>3673.049648857855</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>3673.049648857855</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>3673.049648857855</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3341.986761514284</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3162.45291927783</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>2788.98716101675</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2398.847829040938</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5491740061753</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0961447250484</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1617350637971</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9242800583417</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3897220852266</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>176.180622987936</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>87.16605475010651</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>73.46099297715709</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J21" t="n">
-        <v>181.3984468692021</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K21" t="n">
-        <v>444.0355723203428</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L21" t="n">
-        <v>843.5061400789335</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M21" t="n">
-        <v>1329.026319016048</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N21" t="n">
-        <v>1598.319945975772</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O21" t="n">
-        <v>2045.192846173932</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2384.514679350483</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.845758111661</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.823490172911</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.765774956674</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.613666724932</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.37630999673</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.524809791197</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.764511026243</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1942.735062269368</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C22" t="n">
-        <v>1836.936654099254</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D22" t="n">
-        <v>1686.820014686919</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E22" t="n">
-        <v>1686.820014686919</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F22" t="n">
-        <v>1686.820014686919</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G22" t="n">
-        <v>1686.820014686919</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H22" t="n">
-        <v>1686.820014686919</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>1686.820014686919</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>1740.889028554819</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>1959.57786439812</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>2294.950716949543</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>2658.943490315802</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>3019.715945517116</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>3336.931405095002</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>3584.843349199038</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>3673.049648857855</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>3589.024416307876</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>3399.588555534522</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>3178.373589033582</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U22" t="n">
-        <v>2889.277764485985</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="V22" t="n">
-        <v>2634.593276280099</v>
+        <v>1770.842313657593</v>
       </c>
       <c r="W22" t="n">
-        <v>2345.176106243138</v>
+        <v>1504.312276343835</v>
       </c>
       <c r="X22" t="n">
-        <v>2345.176106243138</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="Y22" t="n">
-        <v>2124.383527099608</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3972.967823953646</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.700204330166</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.624977674364</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,19 +6776,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2382.940125148636</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2163.338660171577</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1874.263433515775</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1619.578945309888</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1102.17222437491</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>881.3796452313798</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>783.5579673960132</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.9885622678</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1185.999011369783</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.2064322262529</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362665</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7654,46 +7654,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>793.6995478537118</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>643.582908441376</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.980159366528</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.36038626332953</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>130.6094513651916</v>
       </c>
       <c r="L6" t="n">
-        <v>54.95314511566573</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.9531451156648</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>14.25823202432798</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>343.4505891785438</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>92.67648855686312</v>
+        <v>62.34368079027784</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.185375452082496</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.42635057212588</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>8.827219048632202</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.6367768339986</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>291.6895322900782</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>96.82222572752062</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9723760533456</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>22.65826139597064</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.18498022447888</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>187.5415021656201</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.0028168359312</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>200.5119154643108</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>291.6895322900782</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>30.59144041089181</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.6944905648478</v>
+        <v>50.29152613729119</v>
       </c>
       <c r="T20" t="n">
-        <v>202.6706066824564</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9723760533456</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>171.5024649033232</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.50639701021494</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8979900283342</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>143.6185946450596</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>92.50857761769487</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>22.65826139597044</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>115.0314858713394</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>117.6435571543365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>37.12601365260463</v>
       </c>
       <c r="G40" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>61.35027805667502</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>267.0073229893824</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>916164.983618832</v>
+        <v>913882.3425806043</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>917595.5874321448</v>
+        <v>914132.5878199233</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757512.9453161735</v>
+        <v>890267.0763819821</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757512.9453161734</v>
+        <v>890267.076381982</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792589.347122523</v>
+        <v>890267.076381982</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792589.3471225229</v>
+        <v>890267.0763819818</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
-      </c>
       <c r="E2" t="n">
-        <v>443296.2286621968</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="F2" t="n">
-        <v>443296.2286621969</v>
+        <v>521741.85156472</v>
       </c>
       <c r="G2" t="n">
-        <v>464023.1933659487</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="H2" t="n">
-        <v>464023.1933659489</v>
+        <v>521741.8515647199</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230093</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>104983.4505300436</v>
+        <v>31363.91015980465</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>361438.621015164</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>495753.0386361763</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>78916.35604225282</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>223720.7540227141</v>
+        <v>10818.91345744848</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376602</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>25342.99488522363</v>
+        <v>7292.214993020156</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>88211.6148329845</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>129476.5444317442</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20903.17611780576</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162975.2146935562</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>238210.7624926398</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.571207054552</v>
+        <v>8110.779805506623</v>
       </c>
       <c r="F4" t="n">
-        <v>7940.571207054552</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="G4" t="n">
-        <v>7985.519039782361</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="H4" t="n">
-        <v>7985.519039782362</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26459,7 +26459,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732067</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85199.08185587224</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>65302.21270672457</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>81132.69294627223</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>81132.69294627223</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-718819.0313677373</v>
+        <v>-456212.5007819065</v>
       </c>
       <c r="C6" t="n">
-        <v>201437.927180032</v>
+        <v>198800.2650526152</v>
       </c>
       <c r="D6" t="n">
-        <v>306421.3777100758</v>
+        <v>-55017.24330508831</v>
       </c>
       <c r="E6" t="n">
-        <v>178976.3370765584</v>
+        <v>-82723.14534645747</v>
       </c>
       <c r="F6" t="n">
-        <v>361049.3168937487</v>
+        <v>413029.8932897187</v>
       </c>
       <c r="G6" t="n">
-        <v>295988.6253376413</v>
+        <v>413029.8932897188</v>
       </c>
       <c r="H6" t="n">
-        <v>374904.9813798943</v>
+        <v>413029.8932897186</v>
       </c>
       <c r="I6" t="n">
-        <v>191684.6935251508</v>
+        <v>404239.1548360595</v>
       </c>
       <c r="J6" t="n">
-        <v>273564.3218102047</v>
+        <v>346058.913874394</v>
       </c>
       <c r="K6" t="n">
-        <v>390062.4526626411</v>
+        <v>407765.8533004879</v>
       </c>
       <c r="L6" t="n">
-        <v>415405.447547865</v>
+        <v>326846.4534605235</v>
       </c>
       <c r="M6" t="n">
-        <v>367853.18175445</v>
+        <v>285581.5238617638</v>
       </c>
       <c r="N6" t="n">
-        <v>415405.4475478648</v>
+        <v>415058.068293508</v>
       </c>
       <c r="O6" t="n">
-        <v>394502.2714300592</v>
+        <v>415058.0682935079</v>
       </c>
       <c r="P6" t="n">
-        <v>415405.4475478651</v>
+        <v>415058.068293508</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>638.4455685951031</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1160.657719432699</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1160.657719432699</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261632</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>292.0476860419625</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>918.2624122144637</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>918.2624122144637</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>80.35422757985498</v>
+        <v>24.39055482562469</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>295.6193235224363</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>423.9761565988465</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>70.88101883940044</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>207.3177809089748</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261632</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>98.46987537387565</v>
+        <v>28.3338060404563</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>348.5371460580762</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>519.5604582259682</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>86.86095681217098</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>254.4458758851847</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387565</v>
+        <v>28.3338060404563</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>348.537146058076</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>519.5604582259682</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>86.86095681217098</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387565</v>
+        <v>28.3338060404563</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>348.5371460580762</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>519.5604582259682</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>86.86095681217098</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>52.67298756858366</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>38.57920276037748</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>80.24826373859285</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>28.38142469224539</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656386</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>197.5563020362401</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.99235711462336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>89.88268403029929</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>114.8283596997489</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>313.1894526509446</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.5264512457317</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>42.06394620040717</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1403236797456</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>153.5989058631757</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.970256883591</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.97264100964347</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.1155223469664</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.1754637170429</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6295260765301</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8510360099472</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>82.37329742892796</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.78758487886509</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8396840708282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.9911107683246</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.8278857319697</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.96260328119547</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>125.5269687169829</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>203.9526610698114</v>
       </c>
       <c r="T7" t="n">
-        <v>135.2930538942223</v>
+        <v>223.0264186538602</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2562314317111</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>251.277510672784</v>
       </c>
       <c r="F8" t="n">
-        <v>288.5144200022569</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -28016,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>216.8034931298456</v>
+        <v>88.02719473174449</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508275</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958413</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>132.3122829933229</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>291.2869367409257</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258711</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840426</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934779</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839008</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190903</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662298</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928395</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141319</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699491</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452748</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175396</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464133</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22291242095115</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076062</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913577</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616798</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730378</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152843</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884505</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475632</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349506</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867496</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053859</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>7.401510384057843</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526971</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619435</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017475</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490426</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368736</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282506</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420139</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595396</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099892</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451903</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153089</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735639</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978875</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>2.566615351136091</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>26.2853494648225</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>98.94943832467423</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>217.838269658487</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>326.4830974720778</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>405.031152024409</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>450.6751977751754</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>457.9675936415909</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>432.4458122437313</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>369.0824957625591</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>277.1655834999977</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>161.2251515508026</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>58.48674731401373</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>11.23535869959824</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2053292280908872</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.373260279619656</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>13.26280322685299</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>47.28111050444868</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>129.7429810670483</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>221.7514198015652</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>298.1721497481187</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>347.9528348843311</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>357.1621110577454</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>326.7335543356468</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>262.2324826933358</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>175.2954700791687</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>85.26259876445549</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>25.5077073867949</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>5.535202618291505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.09034607102760896</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.151295287630514</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>10.23606173911494</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>34.62258919528855</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>81.3965768354773</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>133.7595797810724</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>171.1662103082675</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>180.4707694964813</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>176.1795779698586</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>162.7303557461748</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>139.2439318785122</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>96.40528085786056</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>51.76642266018654</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>20.06393696716085</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>4.919170774421284</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06279792477984626</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.665960681136474</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>47.78526982568894</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>179.8844491595141</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>396.0175803606072</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>593.5276959931143</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>736.3235901884449</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>819.3018684516056</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>832.5590292368847</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>786.1618827138338</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>670.970978398277</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>503.8712615050769</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>293.0981526364394</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>106.3255790213975</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>20.42524288167493</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3732768544909179</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.496509056892975</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>24.11102168104532</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>85.95436884478008</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>235.8653578707526</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>403.1314646825819</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>296.1150832539844</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>632.5584570908209</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>649.3003972135813</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>593.9830123213737</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P18" t="n">
-        <v>476.7237338552911</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>318.677191192163</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>46.37156077167431</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>10.06268343545896</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1642440169008537</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.092989330124539</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>18.60857786238001</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>62.94189730956342</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>147.9743456398049</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>243.1673058090146</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>311.1704318623338</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>328.0855910848856</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>320.2844490362399</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>295.8345282252395</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>253.1375458906987</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>175.2593156343375</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>94.10841115269061</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>36.47509587135218</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>8.9427725923503</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1141630543704295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.665960681136474</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>47.78526982568894</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>179.8844491595141</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>396.0175803606072</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>593.5276959931143</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>736.3235901884449</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>819.3018684516056</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>832.5590292368847</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>786.1618827138338</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>670.970978398277</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>503.8712615050769</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>293.0981526364394</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>106.3255790213975</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>20.42524288167493</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3732768544909179</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.496509056892975</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>24.11102168104532</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>85.95436884478008</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>235.8653578707526</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>403.1314646825819</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>542.0600037784507</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>632.5584570908209</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>403.3554766891151</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>593.9830123213737</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P21" t="n">
-        <v>476.7237338552911</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>318.677191192163</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>46.37156077167431</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>10.06268343545896</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1642440169008537</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.092989330124539</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>18.60857786238001</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>62.94189730956342</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>147.9743456398049</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>243.1673058090146</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>311.1704318623338</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>328.0855910848856</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>320.2844490362399</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>295.8345282252395</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>253.1375458906987</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>175.2593156343375</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>94.10841115269061</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>36.47509587135218</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>8.9427725923503</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1141630543704295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,7 +33511,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142395</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808906</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140554</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662052</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873099</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974036</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109602</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.31198861839</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169987</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818056</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510195</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319509</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>294.302268944006</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P3" t="n">
-        <v>535.1379358731701</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.3983398154571</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>156.5898900231598</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>256.4684548971897</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>280.9040898900911</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>279.7143300212425</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>242.1833805735793</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>183.4714556748827</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.74826709349593</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>36.79236513180069</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>106.3932464270972</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>169.2647370544217</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>220.3289645479027</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>228.554530045</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>202.3476008220446</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>137.8495000072895</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>54.85989362554821</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>2.905354400381583</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>214.5194321923978</v>
       </c>
       <c r="L6" t="n">
-        <v>352.6335057535159</v>
+        <v>159.6177699682445</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>205.8188009623128</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>225.8203989744121</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>184.1373098912023</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>128.2580752790056</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>35.31369599314718</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>111.4900879551895</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>198.7562355685836</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>220.0546464583219</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>220.3117503490872</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>187.3154836602145</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>136.5224911434057</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>10.24323760616618</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>263.9377611478602</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>214.9716758339209</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>373.4378449481338</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>500.5571752184576</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>588.9556352243329</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>603.1459656402938</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>556.0636712921471</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>439.7379826430075</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>281.5655716306273</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>77.51261482230723</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
-        <v>109.0277312040859</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>265.2900257082229</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>157.5607034741103</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>490.4244231688025</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>517.958685130248</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>451.3867678769293</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P18" t="n">
-        <v>342.7493264409608</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>178.6954171061415</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>54.61516552313211</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>220.8978139831317</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>338.7604571226499</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>367.6694680467262</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>364.4166214154685</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>320.4196561392791</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>250.4161051555922</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.09727238264314</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>214.9716758339209</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>373.4378449481338</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>500.5571752184576</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>588.9556352243329</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>603.1459656402938</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>556.0636712921471</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>439.7379826430075</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>281.5655716306273</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>77.51261482230723</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>109.0277312040859</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>265.2900257082229</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>403.5056239985765</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>490.4244231688025</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>272.0137646057818</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>451.3867678769293</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P21" t="n">
-        <v>342.7493264409608</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>178.6954171061415</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.61516552313211</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>220.8978139831317</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>338.7604571226499</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>367.6694680467262</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>364.4166214154685</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>320.4196561392791</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>250.4161051555922</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.09727238264314</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1639977.687380876</v>
+        <v>1643913.367431619</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443395.52155652</v>
+        <v>12402915.60941508</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>461523.3857480699</v>
+        <v>1301036.193901792</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10392241.98512478</v>
+        <v>10081731.94248166</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>21.03410652706985</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>212.568965117905</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>19.23105653261689</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>47.92197287387029</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>88.08022066954918</v>
       </c>
       <c r="U4" t="n">
-        <v>88.70232846643735</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>141.8004513409169</v>
       </c>
       <c r="E5" t="n">
-        <v>292.0476860419625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>292.0476860419625</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.73612216399896</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.5333222722316</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8604908645331</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>174.1533526069592</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.89523538818764</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>123.3996877745495</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.4592362197627</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>130.6528593994778</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>180.6261618334215</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>198.1999593894561</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>65.33825739391257</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>319.4395745411791</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>86.27179222793451</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320712</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>89.60487759803529</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.5517498754667</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0.2668480797626283</v>
       </c>
       <c r="H16" t="n">
-        <v>131.6267707433217</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>410.2652083292161</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>174.2014658783997</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>94.22737326211832</v>
       </c>
       <c r="T17" t="n">
-        <v>148.9055307001842</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.6482014294428</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>86.20436859721237</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6.723132148782838</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>121.6188635051239</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>189.3007148380995</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7640586774374</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>144.5885597026572</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>110.6710444027078</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>165.7313171887915</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>184.6368491346792</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>218.2906692487939</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1957750563272</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>173.4992299462183</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>287.8842063404752</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>16.26654563026742</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.32106446352842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>201.0440655527714</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.6482014294428</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>86.20436859721237</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.723132148782852</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>121.6188635051239</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>189.3007148380995</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7640586774374</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>64.68128438101317</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>75.69076327558298</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>184.6368491346792</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>218.2906692487939</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1957750563272</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>263.8647369406206</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>51.35059460820201</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>176.5196562849262</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>108.2950343703266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>105.8965430419528</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>103.8784673763404</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571245</v>
+        <v>847.3360623098647</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899464</v>
+        <v>478.373545369453</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899464</v>
+        <v>478.373545369453</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>478.373545369453</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>67.38764057984542</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>54.97578331212405</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>54.97578331212405</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>507.2468724099485</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1584.213091808872</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="U2" t="n">
-        <v>840.1393936243026</v>
+        <v>1220.801820570945</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243026</v>
+        <v>1220.801820570945</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243026</v>
+        <v>1220.801820570945</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571245</v>
+        <v>847.3360623098647</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571245</v>
+        <v>847.3360623098647</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.544000427793</v>
+        <v>799.9900272032412</v>
       </c>
       <c r="C3" t="n">
-        <v>486.090971146666</v>
+        <v>625.5369979221142</v>
       </c>
       <c r="D3" t="n">
-        <v>337.1565614854147</v>
+        <v>476.6025882608629</v>
       </c>
       <c r="E3" t="n">
-        <v>177.9191064799592</v>
+        <v>317.3651332554074</v>
       </c>
       <c r="F3" t="n">
-        <v>177.9191064799592</v>
+        <v>170.8305752822924</v>
       </c>
       <c r="G3" t="n">
-        <v>40.52242002902645</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>442.288414802421</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>651.8792880552517</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313625</v>
+        <v>915.8188195507389</v>
       </c>
       <c r="N3" t="n">
-        <v>713.6562631339676</v>
+        <v>1201.152689984071</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>1439.95764173553</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1638.054519921998</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1638.054519921998</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1638.054519921998</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>1383.817163193796</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>1175.965662988263</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478611</v>
+        <v>968.2053642233093</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>500.6951269851943</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>331.7589440572874</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>181.6423046449517</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>1204.161745232629</v>
       </c>
       <c r="U4" t="n">
-        <v>739.7881721817791</v>
+        <v>1204.161745232629</v>
       </c>
       <c r="V4" t="n">
-        <v>485.1036839758923</v>
+        <v>949.4772570267418</v>
       </c>
       <c r="W4" t="n">
-        <v>485.1036839758923</v>
+        <v>949.4772570267418</v>
       </c>
       <c r="X4" t="n">
-        <v>257.114133077875</v>
+        <v>721.4877061287244</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>500.6951269851943</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>626.2239100832803</v>
+        <v>1842.294639468329</v>
       </c>
       <c r="C5" t="n">
-        <v>626.2239100832803</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="D5" t="n">
-        <v>626.2239100832803</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>331.2262474146312</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>36.22858474598222</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>23.363814883357</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>23.363814883357</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>23.363814883357</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>59.78825636383971</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>165.1175703266659</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>332.6896600105429</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>550.8153349129664</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>777.0843196575164</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>977.4084444713405</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>1113.879449478557</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>1168.19074416785</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>1168.19074416785</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>1016.136883286808</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>802.1363874640472</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>802.1363874640472</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>626.2239100832803</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>626.2239100832803</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>626.2239100832803</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y5" t="n">
-        <v>626.2239100832803</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652.5232668043058</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>478.0702375231788</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>329.1358278619275</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>169.898372856472</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>23.363814883357</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>23.363814883357</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>23.363814883357</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>23.363814883357</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>26.24011573973477</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>238.6143536102086</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>396.6359458787706</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>600.3965588314603</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>823.9587538161284</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1006.254690608419</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>1133.230185134634</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>1168.19074416785</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>1153.145051856549</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>1153.145051856549</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>1153.145051856549</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>1153.145051856549</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1153.145051856549</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1153.145051856549</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1028.498902589328</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>820.7386038243737</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.3630433881679</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>23.363814883357</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>23.363814883357</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>23.363814883357</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>23.363814883357</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>23.363814883357</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>23.363814883357</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>23.363814883357</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>23.363814883357</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>133.7390019589946</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>330.5076751718924</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>548.3617751656311</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>766.4704080112274</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>951.9127368348397</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1087.070003066811</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1097.210808296916</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1097.210808296916</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1097.210808296916</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1097.210808296916</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1097.210808296916</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1097.210808296916</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>807.7936382599551</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>579.8040873619377</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.0115082184076</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1380.342820051861</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C8" t="n">
-        <v>1380.342820051861</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D8" t="n">
-        <v>1380.342820051861</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>715.7758545264335</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>300.0711042507223</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4837,19 +4837,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.342820051861</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1380.342820051861</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145195</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.1529317523638</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
         <v>664.1529317523638</v>
@@ -4953,25 +4953,25 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1436.244140893229</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1181.559652687342</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W10" t="n">
-        <v>892.1424826503811</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>664.1529317523638</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>664.1529317523638</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>971.2814123723974</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>174.5072549845456</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128761</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070877</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750195</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469745</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126174</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856059</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>619.2366775615039</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>177.6844143428629</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2275.814998036501</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.0589900220732</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>494.0589900220732</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>406.9157655494121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>406.9157655494121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0258180515017</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368669</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107599</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1957.667456821981</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1668.591243136708</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1413.906754930821</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1124.48958489386</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>896.5000339958431</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.7074548523129</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555045</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614633</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007883</v>
+        <v>568.0079985935438</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409639</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469744</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126173</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594979</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619167</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608054</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608054</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635719</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="C16" t="n">
-        <v>392.982152135665</v>
+        <v>511.7013404397344</v>
       </c>
       <c r="D16" t="n">
-        <v>392.982152135665</v>
+        <v>361.5847010273986</v>
       </c>
       <c r="E16" t="n">
-        <v>392.982152135665</v>
+        <v>213.6716074450055</v>
       </c>
       <c r="F16" t="n">
-        <v>392.982152135665</v>
+        <v>66.78165994709516</v>
       </c>
       <c r="G16" t="n">
-        <v>225.7679573102439</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373418</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938117</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2196.894962937779</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1827.932445997367</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1469.666747390617</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1083.878494792373</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>672.892590002765</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872365</v>
+        <v>258.4832886601224</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608054</v>
+        <v>82.52221201527416</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322607997</v>
+        <v>82.52221201527416</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>326.5652193498058</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128761</v>
+        <v>743.0609439667737</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018651</v>
+        <v>1296.662481283314</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957689</v>
+        <v>1944.320296588627</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874795</v>
+        <v>2607.071700829812</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333933</v>
+        <v>3219.553797190096</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>3707.792095300533</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127289</v>
+        <v>4026.26597740197</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304027</v>
+        <v>4126.110600763708</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070876</v>
+        <v>4030.931435852478</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4030.931435852478</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4030.931435852478</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3699.868548508907</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3347.099893238792</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>2973.634134977713</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2583.494803001901</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5561105780795</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>767.1030812969525</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1686716357012</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9312166302458</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3966586571307</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>176.3883743849663</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608054</v>
+        <v>89.31325458980228</v>
       </c>
       <c r="I18" t="n">
-        <v>93.85065580060314</v>
+        <v>82.52221201527416</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4986375524491</v>
+        <v>209.0547083647567</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0073801158079</v>
+        <v>503.4737231504444</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.739712959559</v>
+        <v>945.6789632480837</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.758067211687</v>
+        <v>1481.068489140594</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.854030611023</v>
+        <v>2045.03682759797</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>2538.737881929579</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2556.877395387832</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2556.877395387832</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2556.877395387832</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.030058513969</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.817215243162</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.772711528578</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.620603296836</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.383246568634</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.531746363101</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.771447598147</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>850.9945487488452</v>
+        <v>361.7165166531522</v>
       </c>
       <c r="C19" t="n">
-        <v>704.9454985441409</v>
+        <v>361.7165166531522</v>
       </c>
       <c r="D19" t="n">
-        <v>554.8288591318052</v>
+        <v>361.7165166531522</v>
       </c>
       <c r="E19" t="n">
-        <v>406.9157655494121</v>
+        <v>249.9275829130433</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0258180515017</v>
+        <v>249.9275829130433</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608054</v>
+        <v>82.52221201527416</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608054</v>
+        <v>82.52221201527416</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608054</v>
+        <v>82.52221201527416</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156345</v>
+        <v>148.2571579412922</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>386.1167037888022</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693324</v>
+        <v>746.021464901168</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1135.879696217551</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1521.902586591076</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>1862.440909951862</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2130.309593171391</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2232.332904555464</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2232.332904555464</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.205584149098</v>
+        <v>2045.831036742657</v>
       </c>
       <c r="T19" t="n">
-        <v>2025.52680186348</v>
+        <v>1825.335411238825</v>
       </c>
       <c r="U19" t="n">
-        <v>2025.52680186348</v>
+        <v>1536.248769767787</v>
       </c>
       <c r="V19" t="n">
-        <v>1770.842313657593</v>
+        <v>1281.5642815619</v>
       </c>
       <c r="W19" t="n">
-        <v>1481.425143620632</v>
+        <v>992.1471115249394</v>
       </c>
       <c r="X19" t="n">
-        <v>1253.435592722615</v>
+        <v>764.1575606269221</v>
       </c>
       <c r="Y19" t="n">
-        <v>1032.643013579085</v>
+        <v>543.3649814833919</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2088.99931415934</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1720.036797218928</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1361.771098612177</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>975.9828460139331</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>564.9969412243256</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>389.7451938039031</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>98.95306618726141</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>82.52221201527412</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251936</v>
+        <v>326.5652193498054</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128755</v>
+        <v>743.060943966773</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1296.662481283314</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>1944.320296588626</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2607.071700829811</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3219.553797190096</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>3707.792095300532</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4026.265977401968</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4126.110600763706</v>
       </c>
       <c r="S20" t="n">
-        <v>4605.913419421674</v>
+        <v>4126.110600763706</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.704271100993</v>
+        <v>3923.035787074038</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>3923.035787074038</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>3591.972899730467</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3239.204244460353</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>2865.738486199273</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2475.599154223461</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5561105780795</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>767.1030812969525</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1686716357012</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9312166302458</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3966586571307</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>176.3883743849663</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>89.31325458980226</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060312</v>
+        <v>82.52221201527412</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4986375524491</v>
+        <v>209.0547083647566</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0073801158079</v>
+        <v>503.4737231504442</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.739712959559</v>
+        <v>945.6789632480834</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.758067211687</v>
+        <v>1481.068489140593</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.854030611023</v>
+        <v>2045.036827597969</v>
       </c>
       <c r="O21" t="n">
-        <v>2552.77562977024</v>
+        <v>2538.737881929578</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2556.877395387832</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2556.877395387832</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2556.877395387832</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.030058513969</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.817215243162</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.772711528578</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.620603296836</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.383246568634</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.531746363101</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.771447598147</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>873.8816814720478</v>
+        <v>466.9096650434088</v>
       </c>
       <c r="C22" t="n">
-        <v>704.9454985441409</v>
+        <v>297.973482115502</v>
       </c>
       <c r="D22" t="n">
-        <v>554.8288591318052</v>
+        <v>147.8568427031662</v>
       </c>
       <c r="E22" t="n">
-        <v>406.9157655494121</v>
+        <v>147.8568427031662</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0258180515017</v>
+        <v>147.8568427031662</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>82.52221201527412</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>82.52221201527412</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>82.52221201527412</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156345</v>
+        <v>148.2571579412921</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>386.1167037888021</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693324</v>
+        <v>746.021464901168</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>1135.879696217551</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1521.902586591076</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>1862.440909951862</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2130.309593171391</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2232.332904555464</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>2155.877588115481</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149098</v>
+        <v>1969.375720302674</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186348</v>
+        <v>1748.880094798842</v>
       </c>
       <c r="U22" t="n">
-        <v>2025.52680186348</v>
+        <v>1459.793453327804</v>
       </c>
       <c r="V22" t="n">
-        <v>1770.842313657593</v>
+        <v>1205.108965121917</v>
       </c>
       <c r="W22" t="n">
-        <v>1504.312276343835</v>
+        <v>915.6917950849563</v>
       </c>
       <c r="X22" t="n">
-        <v>1276.322725445817</v>
+        <v>687.702244186939</v>
       </c>
       <c r="Y22" t="n">
-        <v>1055.530146302287</v>
+        <v>466.9096650434088</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
         <v>261.0127623330919</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6840,19 +6840,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7590,31 +7590,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362665</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,34 +7785,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>26.13373767211345</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8.985656744431225</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.36038626332953</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>130.6094513651916</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.9531451156648</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.939397511106</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>345.5834682595409</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>50.29152613728996</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>62.34368079027784</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>16.14213605696597</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>292.3254924742265</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613729093</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7589601792656</v>
       </c>
       <c r="H16" t="n">
-        <v>8.827219048632202</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>113.6827404620755</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>16.26654563026736</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>50.29152613728999</v>
+        <v>201.0440655527714</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.942650572963</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>22.65826139597064</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>35.76291824386138</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>142.1367215807611</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>87.49627077035404</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>75.69076327558297</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>236.7659783829978</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.29152613729119</v>
+        <v>94.22737326211833</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.942650572963</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>101.0500328077783</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>142.1367215807611</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>87.49627077035406</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>22.65826139597044</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.1735436840668</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>37.12601365260463</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>61.35027805667502</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>63.36835372228748</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>913882.3425806043</v>
+        <v>915276.9324253554</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>914132.5878199233</v>
+        <v>917595.5874321448</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>917595.5874321447</v>
+        <v>917595.5874321448</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>890267.0763819821</v>
+        <v>757512.9453161735</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>890267.076381982</v>
+        <v>757512.9453161734</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>890267.076381982</v>
+        <v>838328.3896539722</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>890267.0763819818</v>
+        <v>838328.389653972</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391545</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>521741.8515647202</v>
+        <v>443296.2286621969</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.85156472</v>
+        <v>443296.2286621969</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647202</v>
+        <v>491050.80940726</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647199</v>
+        <v>491050.8094072599</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>863984.3294200042</v>
       </c>
       <c r="C3" t="n">
-        <v>31363.91015980465</v>
+        <v>238369.8891383884</v>
       </c>
       <c r="D3" t="n">
-        <v>361438.621015164</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361763</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>181821.967209878</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744848</v>
+        <v>124026.315848667</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>110313.0712406509</v>
       </c>
       <c r="K3" t="n">
-        <v>7292.214993020156</v>
+        <v>56355.79215856571</v>
       </c>
       <c r="L3" t="n">
-        <v>88211.6148329845</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.5444317442</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>48160.56890207957</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982313</v>
+        <v>199144.7577900212</v>
       </c>
       <c r="C4" t="n">
-        <v>238210.7624926398</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8110.779805506623</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506622</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="G4" t="n">
-        <v>8110.779805506622</v>
+        <v>8044.142356117898</v>
       </c>
       <c r="H4" t="n">
-        <v>8110.779805506622</v>
+        <v>8044.142356117896</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26459,7 +26459,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426732067</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="C5" t="n">
-        <v>65302.21270672457</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>90034.14252455009</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>90034.14252455006</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-456212.5007819065</v>
+        <v>-605063.3220574334</v>
       </c>
       <c r="C6" t="n">
-        <v>198800.2650526152</v>
+        <v>68051.48857168708</v>
       </c>
       <c r="D6" t="n">
-        <v>-55017.24330508831</v>
+        <v>306421.3777100757</v>
       </c>
       <c r="E6" t="n">
-        <v>-82723.14534645747</v>
+        <v>178628.7181467523</v>
       </c>
       <c r="F6" t="n">
-        <v>413029.8932897187</v>
+        <v>360701.6979639429</v>
       </c>
       <c r="G6" t="n">
-        <v>413029.8932897188</v>
+        <v>210986.609851312</v>
       </c>
       <c r="H6" t="n">
-        <v>413029.8932897186</v>
+        <v>392808.5770611902</v>
       </c>
       <c r="I6" t="n">
-        <v>404239.1548360595</v>
+        <v>291344.3937737622</v>
       </c>
       <c r="J6" t="n">
-        <v>346058.913874394</v>
+        <v>305057.6383817781</v>
       </c>
       <c r="K6" t="n">
-        <v>407765.8533004879</v>
+        <v>359014.9174638633</v>
       </c>
       <c r="L6" t="n">
-        <v>326846.4534605235</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="M6" t="n">
-        <v>285581.5238617638</v>
+        <v>367818.443829014</v>
       </c>
       <c r="N6" t="n">
-        <v>415058.068293508</v>
+        <v>415370.709622429</v>
       </c>
       <c r="O6" t="n">
-        <v>415058.0682935079</v>
+        <v>367210.1407203496</v>
       </c>
       <c r="P6" t="n">
-        <v>415058.068293508</v>
+        <v>415370.709622429</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>749.98095649761</v>
       </c>
       <c r="C3" t="n">
-        <v>638.4455685951031</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1253.085384997327</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1253.085384997327</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="C4" t="n">
-        <v>292.0476860419625</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1031.527650190927</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1031.527650190927</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>749.98095649761</v>
       </c>
       <c r="C3" t="n">
-        <v>24.39055482562469</v>
+        <v>184.0839356199292</v>
       </c>
       <c r="D3" t="n">
-        <v>295.6193235224363</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988465</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>163.3086844040288</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>114.8901153443469</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="C4" t="n">
-        <v>28.3338060404563</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="D4" t="n">
-        <v>348.5371460580762</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259682</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>200.1261947886343</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>141.1806379087218</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>421.6151382819819</v>
       </c>
       <c r="K4" t="n">
-        <v>28.3338060404563</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="L4" t="n">
-        <v>348.537146058076</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259682</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>200.126194788634</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="K4" t="n">
-        <v>28.3338060404563</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="L4" t="n">
-        <v>348.5371460580762</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259682</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>200.1261947886343</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>73.20604103178182</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.57920276037748</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>80.24826373859285</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>145.7405624339579</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>134.0868269627671</v>
       </c>
       <c r="U4" t="n">
-        <v>197.5563020362401</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>212.882590279766</v>
       </c>
       <c r="E5" t="n">
-        <v>89.88268403029929</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>114.8283596997489</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>313.1894526509446</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>111.5264512457317</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1403236797456</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>153.5989058631757</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.970256883591</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.97264100964347</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.1155223469664</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.1754637170429</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6295260765301</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8510360099472</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>82.37329742892796</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.78758487886509</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8396840708282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.9911107683246</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>120.8278857319697</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
-        <v>11.96260328119547</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.5269687169829</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>203.9526610698114</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0264186538602</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2562314317111</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>251.277510672784</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>120.3923907289839</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>88.02719473174449</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>80.94049690661271</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30662,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.566615351136091</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>26.2853494648225</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>98.94943832467423</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>217.838269658487</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>326.4830974720778</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>405.031152024409</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>450.6751977751754</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>457.9675936415909</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>432.4458122437313</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>369.0824957625591</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>277.1655834999977</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>161.2251515508026</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>58.48674731401373</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>11.23535869959824</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2053292280908872</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.373260279619656</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>13.26280322685299</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>47.28111050444868</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>129.7429810670483</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>221.7514198015652</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>298.1721497481187</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>347.9528348843311</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>357.1621110577454</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>326.7335543356468</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>262.2324826933358</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>175.2954700791687</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>85.26259876445549</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>25.5077073867949</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>5.535202618291505</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09034607102760896</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.151295287630514</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>10.23606173911494</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>34.62258919528855</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>81.3965768354773</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>133.7595797810724</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>171.1662103082675</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>180.4707694964813</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>176.1795779698586</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>162.7303557461748</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>139.2439318785122</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.40528085786056</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>51.76642266018654</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>20.06393696716085</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>4.919170774421284</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06279792477984626</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>422.3544583169084</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.037529185918899</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>51.59059577529194</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>194.2093439401386</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>427.5539927433845</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>640.7926031833317</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>794.9598870068974</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>884.5460466669825</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>898.8589264664747</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>848.7669956239936</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>724.4029938466206</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>543.9964798758999</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>316.4386927249783</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>114.792696324127</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>22.05178401135999</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4030023348735118</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.695315733767836</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>26.0310756392841</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>92.79924785121716</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>254.6482290398814</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>435.2343832023263</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>585.2263394744593</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>682.9315348235432</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>701.006700424118</v>
       </c>
       <c r="O18" t="n">
-        <v>421.3049304638554</v>
+        <v>641.2841781127358</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>152.2971482812521</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>50.06430759871393</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>10.8640138567221</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1773234035373577</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.259662169667311</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>20.09045092667847</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>67.95420415690424</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>159.7581153954789</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>262.5316593486202</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>335.9501374794473</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>354.2123162870312</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>345.7899391091806</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>319.3929764907942</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>273.2958682295808</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>189.2158931345964</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>101.6026281015865</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>39.37974890229303</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>9.654920179487599</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1232543001636716</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.037529185918898</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>51.59059577529193</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>194.2093439401385</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>427.5539927433845</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>640.7926031833315</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>794.9598870068972</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>884.5460466669823</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>898.8589264664745</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>848.7669956239934</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>724.4029938466205</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>543.9964798758998</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>316.4386927249782</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>114.792696324127</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>22.05178401135999</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4030023348735118</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.695315733767835</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>26.0310756392841</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>92.79924785121715</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>254.6482290398814</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>435.2343832023263</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>585.2263394744592</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>682.9315348235431</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>701.0067004241179</v>
       </c>
       <c r="O21" t="n">
-        <v>421.3049304638554</v>
+        <v>641.2841781127357</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>152.2971482812535</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>50.06430759871392</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>10.8640138567221</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1773234035373576</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.25966216966731</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>20.09045092667846</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>67.95420415690423</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>159.7581153954789</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>262.5316593486202</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>335.9501374794473</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>354.2123162870312</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>345.7899391091806</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>319.3929764907941</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>273.2958682295808</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>189.2158931345963</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>101.6026281015865</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>39.37974890229302</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>9.654920179487597</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1232543001636716</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>387.1148251643754</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015062</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O3" t="n">
-        <v>197.7888359819416</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>183.0553142734307</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>65.93752551686947</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.79236513180069</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>106.3932464270972</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>169.2647370544217</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>220.3289645479027</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>228.554530045</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>202.3476008220446</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>137.8495000072895</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.85989362554821</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.905354400381583</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>214.5194321923978</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>159.6177699682445</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8188009623128</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>225.8203989744121</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>184.1373098912023</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>128.2580752790056</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.31369599314718</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>111.4900879551895</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>198.7562355685836</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>220.0546464583219</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>220.3117503490872</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>187.3154836602145</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>136.5224911434057</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.24323760616618</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065822</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489562</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>279.758213872464</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>246.5080882166982</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>420.7027521383512</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>559.1934720369102</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>654.1998134397098</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>669.4458628698837</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>618.6687842023068</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>493.169998091351</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>321.6907900014504</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>100.8531549108462</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>127.8106023732147</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>297.3929442279673</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>446.6719596945852</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>540.7975009015249</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>569.6649883407847</v>
       </c>
       <c r="O18" t="n">
-        <v>278.7086860194109</v>
+        <v>498.6879336682914</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>18.32274086692184</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>66.39893527880611</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>240.2621675227374</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>363.5401627397634</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>393.7961932488718</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>389.9221114884092</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>343.9781044048339</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>270.5744274944743</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>103.053849882902</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>246.5080882166982</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>420.7027521383509</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>559.19347203691</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>654.1998134397096</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>669.4458628698835</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>618.6687842023066</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>493.1699980913509</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>321.6907900014503</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>100.8531549108461</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>127.8106023732147</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>297.3929442279673</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>446.671959694585</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>540.7975009015247</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>569.6649883407846</v>
       </c>
       <c r="O21" t="n">
-        <v>278.7086860194109</v>
+        <v>498.6879336682913</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>18.32274086692322</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>66.39893527880608</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>240.2621675227374</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>363.5401627397634</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>393.7961932488718</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>389.9221114884092</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>343.9781044048338</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>270.5744274944743</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>103.053849882902</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
